--- a/oci_tenancy/Network/example/CD3-template.xlsx
+++ b/oci_tenancy/Network/example/CD3-template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="VCNs" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="97">
   <si>
     <t>Regional</t>
   </si>
@@ -921,7 +921,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
@@ -1059,10 +1059,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1072,10 +1072,9 @@
     <col min="3" max="3" width="21.42578125" customWidth="1"/>
     <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -1091,11 +1090,8 @@
       <c r="E1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -1111,11 +1107,8 @@
       <c r="E2" t="s">
         <v>34</v>
       </c>
-      <c r="F2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -1127,9 +1120,6 @@
       </c>
       <c r="D3" t="s">
         <v>33</v>
-      </c>
-      <c r="F3" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/oci_tenancy/Network/example/CD3-template.xlsx
+++ b/oci_tenancy/Network/example/CD3-template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="VCNs" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="98">
   <si>
     <t>Regional</t>
   </si>
@@ -69,21 +69,6 @@
     <t>type(private|public)</t>
   </si>
   <si>
-    <t>host_name</t>
-  </si>
-  <si>
-    <t>fault_domain
-(FAULT-DOMAIN-1| FAULT-DOMAIN-2|
-FAULT-DOMAIN-3)</t>
-  </si>
-  <si>
-    <t>shape</t>
-  </si>
-  <si>
-    <t>public address
-(true|false)</t>
-  </si>
-  <si>
     <t>OCPVQLGISAPP01_disk2</t>
   </si>
   <si>
@@ -99,18 +84,12 @@
     <t>nonprod_compartment_ocid</t>
   </si>
   <si>
-    <t>FAULT-DOMAIN-1</t>
-  </si>
-  <si>
     <t>qa-app</t>
   </si>
   <si>
     <t>10.110.13.10</t>
   </si>
   <si>
-    <t>SusePHXRyder</t>
-  </si>
-  <si>
     <t>VM.Standard2.16</t>
   </si>
   <si>
@@ -163,15 +142,6 @@
   </si>
   <si>
     <t>subnet_name</t>
-  </si>
-  <si>
-    <t>ssh_key_var</t>
-  </si>
-  <si>
-    <t>ip_address</t>
-  </si>
-  <si>
-    <t>image_var_name</t>
   </si>
   <si>
     <t>dhcp_option_name</t>
@@ -319,6 +289,36 @@
   </si>
   <si>
     <t>prod-app</t>
+  </si>
+  <si>
+    <t>Hostname</t>
+  </si>
+  <si>
+    <t>Availability domain</t>
+  </si>
+  <si>
+    <t>Fault Domain</t>
+  </si>
+  <si>
+    <t>subnet name</t>
+  </si>
+  <si>
+    <t>Pub Address</t>
+  </si>
+  <si>
+    <t>IP Address</t>
+  </si>
+  <si>
+    <t>Shape</t>
+  </si>
+  <si>
+    <t>SSH-key</t>
+  </si>
+  <si>
+    <t>Compartment Var Name</t>
+  </si>
+  <si>
+    <t>FAULT-DOMAIN-3</t>
   </si>
 </sst>
 </file>
@@ -830,30 +830,30 @@
         <v>12</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H2" s="1">
         <v>4</v>
@@ -862,30 +862,30 @@
         <v>100</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="H3" s="1">
         <v>2</v>
@@ -894,7 +894,7 @@
         <v>100</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -941,45 +941,45 @@
   <sheetData>
     <row r="1" spans="1:10" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="B2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
@@ -991,16 +991,16 @@
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1061,7 +1061,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -1079,10 +1079,10 @@
         <v>3</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>13</v>
@@ -1093,33 +1093,33 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1132,8 +1132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1152,68 +1152,68 @@
     <col min="12" max="12" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>47</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="J2" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -1245,42 +1245,42 @@
   <sheetData>
     <row r="1" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1">
         <v>302</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1331,89 +1331,89 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="14"/>
       <c r="B3" s="9" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
       <c r="B4" s="10" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
       <c r="B5" s="10" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="14"/>
       <c r="B6" s="12" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="E6" s="1"/>
     </row>
@@ -1422,7 +1422,7 @@
       <c r="B7" s="12"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="E7" s="1"/>
     </row>
@@ -1431,7 +1431,7 @@
       <c r="B8" s="12"/>
       <c r="C8" s="1"/>
       <c r="D8" s="11" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="E8" s="1"/>
     </row>
@@ -1440,7 +1440,7 @@
       <c r="B9" s="12"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="E9" s="1"/>
     </row>
@@ -1449,7 +1449,7 @@
       <c r="B10" s="12"/>
       <c r="C10" s="1"/>
       <c r="D10" s="11" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E10" s="1"/>
     </row>
@@ -1458,7 +1458,7 @@
       <c r="B11" s="12"/>
       <c r="C11" s="1"/>
       <c r="D11" s="11" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="E11" s="1"/>
     </row>
@@ -1467,7 +1467,7 @@
       <c r="B12" s="12"/>
       <c r="C12" s="1"/>
       <c r="D12" s="11" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E12" s="1"/>
     </row>
@@ -1476,7 +1476,7 @@
       <c r="B13" s="12"/>
       <c r="C13" s="1"/>
       <c r="D13" s="11" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="E13" s="1"/>
     </row>
@@ -1485,7 +1485,7 @@
       <c r="B14" s="10"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="E14" s="1"/>
     </row>
@@ -1494,7 +1494,7 @@
       <c r="B15" s="10"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="E15" s="1"/>
     </row>
@@ -1503,7 +1503,7 @@
       <c r="B16" s="10"/>
       <c r="C16" s="1"/>
       <c r="D16" s="11" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="E16" s="1"/>
     </row>
@@ -1512,7 +1512,7 @@
       <c r="B17" s="10"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="E17" s="1"/>
     </row>

--- a/oci_tenancy/Network/example/CD3-template.xlsx
+++ b/oci_tenancy/Network/example/CD3-template.xlsx
@@ -312,13 +312,13 @@
     <t>Shape</t>
   </si>
   <si>
-    <t>SSH-key</t>
-  </si>
-  <si>
     <t>Compartment Var Name</t>
   </si>
   <si>
     <t>FAULT-DOMAIN-3</t>
+  </si>
+  <si>
+    <t>SSH-key-var-name</t>
   </si>
 </sst>
 </file>
@@ -1133,7 +1133,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1146,7 +1146,7 @@
     <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" customWidth="1"/>
     <col min="10" max="10" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19.28515625" bestFit="1" customWidth="1"/>
@@ -1178,10 +1178,10 @@
         <v>94</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1192,7 +1192,7 @@
         <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>21</v>
